--- a/resources/Items.xlsx
+++ b/resources/Items.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\albay\Dropbox\doxa-exp1\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\albay\Dropbox\doxa-exp1 (1)\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8132AE85-F710-416F-8E64-6C4820F34F05}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1ECE6AA-E8CD-469C-AF12-1D9DE8F0F3DC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1992" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="277">
   <si>
     <t>Item</t>
   </si>
@@ -738,9 +738,6 @@
     <t>Mülakatta verdiği bir cevabın müdürü sinirlendirdiğini biliyor.</t>
   </si>
   <si>
-    <t>Sevgilisinin ona sürpriz yapacağını duyduğunda sevdiği grubun konserine bilet aldığını $yor.</t>
-  </si>
-  <si>
     <t>Doğum günü yaklaştığında ailesinin ona yine oyuncak bebek aldığını $yor.</t>
   </si>
   <si>
@@ -757,6 +754,111 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>Bir miktar para biriktirdikten sonra kumbarası olduğunu unutuyor.</t>
+  </si>
+  <si>
+    <t>Çağrı bu hafta sonu kardan adam yapmak istiyor.</t>
+  </si>
+  <si>
+    <t>Kardan adam</t>
+  </si>
+  <si>
+    <t>Kumbara biriktirmek</t>
+  </si>
+  <si>
+    <t>Para kazanmak</t>
+  </si>
+  <si>
+    <t>Para biriktirmek</t>
+  </si>
+  <si>
+    <t>Masa tenisi</t>
+  </si>
+  <si>
+    <t>Sırıkla atlama</t>
+  </si>
+  <si>
+    <t>Oyuncak araba</t>
+  </si>
+  <si>
+    <t>Güldüren aynalar</t>
+  </si>
+  <si>
+    <t>Çarpışan arabalar</t>
+  </si>
+  <si>
+    <t>Piyango bileti</t>
+  </si>
+  <si>
+    <t>Akşam yemeği</t>
+  </si>
+  <si>
+    <t>Öğle yemeği</t>
+  </si>
+  <si>
+    <t>Yüksek lisans</t>
+  </si>
+  <si>
+    <t>Oyuncak bebek</t>
+  </si>
+  <si>
+    <t>Tatil köyü</t>
+  </si>
+  <si>
+    <t>Hocası sınıftan sadece altı kişinin geçtiğini söylüyor.</t>
+  </si>
+  <si>
+    <t>Kaybolduğunu fark ettiğinde Simay nasıl hisseder?</t>
+  </si>
+  <si>
+    <t>Nurcan her hafta fizik dersine gidiyor.</t>
+  </si>
+  <si>
+    <t>Esra masa tenisi maçında Göksu’nun tarafını tutuyor.</t>
+  </si>
+  <si>
+    <t>Sevgilisinin sürpriz yapacağını duyduğunda sevdiği grubun konserine bilet aldığını $yor.</t>
+  </si>
+  <si>
+    <t>Maç sonucunda Esra nasıl hisseder?</t>
+  </si>
+  <si>
+    <t>Öğlen yemeğe gittiğinde Mehmet nasıl hisseder?</t>
+  </si>
+  <si>
+    <t>Bilmiyorum</t>
+  </si>
+  <si>
+    <t>Ödevi olduğunu hatırladığında Nurcan nasıl hisseder?</t>
+  </si>
+  <si>
+    <t>Çekiliş sonuçlarını öğrendiğinde Funda nasıl hisseder?</t>
+  </si>
+  <si>
+    <t>Salı akşamı bilet almaya gittiğinde Elif nasıl hisseder?</t>
+  </si>
+  <si>
+    <t>ü</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>Aylar sonra kumbarası tekrar aklına geldiğinde nasıl hisseder?</t>
+  </si>
+  <si>
+    <t>Notlar açıklandığında Emre nasıl hisseder?</t>
+  </si>
+  <si>
+    <t>Tatilin ilk haftası Barış nasıl hisseder?</t>
+  </si>
+  <si>
+    <t>Tencereyi ocağa koyduktan sonra içeri gidip televizyon izliyor.</t>
+  </si>
+  <si>
+    <t>Bir saat sonra mutfağa döndüğünde Taylan nasıl hisseder?</t>
   </si>
 </sst>
 </file>
@@ -2144,7 +2246,7 @@
         <v>11</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>13</v>
@@ -2176,7 +2278,7 @@
         <v>21</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>23</v>
@@ -2208,7 +2310,7 @@
         <v>31</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>32</v>
@@ -2240,7 +2342,7 @@
         <v>40</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>41</v>
@@ -2272,7 +2374,7 @@
         <v>49</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>50</v>
@@ -2304,7 +2406,7 @@
         <v>58</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>59</v>
@@ -3733,10 +3835,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3745,7 +3847,7 @@
     <col min="2" max="2" width="76.140625" style="11" customWidth="1"/>
     <col min="3" max="3" width="93.42578125" style="11" customWidth="1"/>
     <col min="4" max="4" width="67.7109375" style="11" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" style="11" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" style="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.42578125" style="11" customWidth="1"/>
     <col min="7" max="7" width="4.42578125" style="11" customWidth="1"/>
     <col min="8" max="8" width="58.7109375" style="11" customWidth="1"/>
@@ -3756,7 +3858,7 @@
     <col min="1026" max="16384" width="9.140625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -3773,7 +3875,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="12" t="s">
         <v>8</v>
       </c>
@@ -3781,7 +3883,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>236</v>
+        <v>263</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>11</v>
@@ -3790,7 +3892,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" s="12" t="s">
         <v>18</v>
       </c>
@@ -3798,7 +3900,7 @@
         <v>19</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>21</v>
@@ -3807,7 +3909,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" s="12" t="s">
         <v>28</v>
       </c>
@@ -3815,7 +3917,7 @@
         <v>29</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>31</v>
@@ -3824,7 +3926,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="A5" s="12" t="s">
         <v>37</v>
       </c>
@@ -3832,7 +3934,7 @@
         <v>38</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>40</v>
@@ -3841,7 +3943,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1">
       <c r="A6" s="12" t="s">
         <v>46</v>
       </c>
@@ -3849,7 +3951,7 @@
         <v>47</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>49</v>
@@ -3858,7 +3960,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1">
       <c r="A7" s="12" t="s">
         <v>55</v>
       </c>
@@ -3866,7 +3968,7 @@
         <v>56</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D7" s="13" t="s">
         <v>58</v>
@@ -3875,12 +3977,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1">
+    <row r="8" spans="1:6" ht="15.75" customHeight="1">
       <c r="A8" s="15" t="s">
         <v>64</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>65</v>
+        <v>243</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>66</v>
@@ -3892,24 +3994,27 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.75" customHeight="1">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1">
       <c r="A9" s="15" t="s">
         <v>73</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>74</v>
+        <v>262</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>75</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" customHeight="1">
+        <v>264</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" customHeight="1">
       <c r="A10" s="15" t="s">
         <v>82</v>
       </c>
@@ -3920,13 +4025,16 @@
         <v>84</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="15.75" customHeight="1">
+        <v>265</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" customHeight="1">
       <c r="A11" s="15" t="s">
         <v>91</v>
       </c>
@@ -3943,7 +4051,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.75" customHeight="1">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1">
       <c r="A12" s="15" t="s">
         <v>100</v>
       </c>
@@ -3960,7 +4068,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.75" customHeight="1">
+    <row r="13" spans="1:6" ht="15.75" customHeight="1">
       <c r="A13" s="15" t="s">
         <v>108</v>
       </c>
@@ -3968,16 +4076,19 @@
         <v>109</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>110</v>
+        <v>242</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="15.75" customHeight="1">
+        <v>272</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" customHeight="1">
       <c r="A14" s="15" t="s">
         <v>117</v>
       </c>
@@ -3988,13 +4099,16 @@
         <v>119</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="15.75" customHeight="1">
+        <v>269</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" customHeight="1">
       <c r="A15" s="15" t="s">
         <v>126</v>
       </c>
@@ -4005,13 +4119,16 @@
         <v>128</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="15.75" customHeight="1">
+        <v>274</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" customHeight="1">
       <c r="A16" s="15" t="s">
         <v>135</v>
       </c>
@@ -4019,16 +4136,19 @@
         <v>136</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>137</v>
+        <v>259</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="E16" s="16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="15.75" customHeight="1">
+        <v>273</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" customHeight="1">
       <c r="A17" s="15" t="s">
         <v>144</v>
       </c>
@@ -4045,7 +4165,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15.75" customHeight="1">
+    <row r="18" spans="1:6" ht="15.75" customHeight="1">
       <c r="A18" s="15" t="s">
         <v>152</v>
       </c>
@@ -4053,16 +4173,19 @@
         <v>153</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>154</v>
+        <v>275</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="15.75" customHeight="1">
+        <v>276</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" customHeight="1">
       <c r="A19" s="15" t="s">
         <v>161</v>
       </c>
@@ -4079,24 +4202,24 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15.75" customHeight="1">
+    <row r="20" spans="1:6" ht="15.75" customHeight="1">
       <c r="A20" s="15" t="s">
         <v>170</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>171</v>
+        <v>261</v>
       </c>
       <c r="C20" s="13" t="s">
         <v>172</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>173</v>
+        <v>267</v>
       </c>
       <c r="E20" s="16" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1">
+    <row r="21" spans="1:6" ht="15.75" customHeight="1">
       <c r="A21" s="15" t="s">
         <v>179</v>
       </c>
@@ -4107,13 +4230,16 @@
         <v>181</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>182</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="15.75" customHeight="1">
+        <v>268</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" customHeight="1">
       <c r="A22" s="15" t="s">
         <v>188</v>
       </c>
@@ -4124,13 +4250,13 @@
         <v>190</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>191</v>
+        <v>260</v>
       </c>
       <c r="E22" s="16" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15.75" customHeight="1">
+    <row r="23" spans="1:6" ht="15.75" customHeight="1">
       <c r="A23" s="15" t="s">
         <v>197</v>
       </c>
@@ -4147,7 +4273,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15.75" customHeight="1">
+    <row r="24" spans="1:6" ht="15.75" customHeight="1">
       <c r="A24" s="15" t="s">
         <v>206</v>
       </c>
@@ -4164,7 +4290,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15.75" customHeight="1">
+    <row r="25" spans="1:6" ht="15.75" customHeight="1">
       <c r="A25" s="15" t="s">
         <v>215</v>
       </c>
@@ -4181,10 +4307,10 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15.75" customHeight="1">
+    <row r="26" spans="1:6" ht="15.75" customHeight="1">
       <c r="A26" s="18"/>
     </row>
-    <row r="27" spans="1:5" ht="15.75" customHeight="1">
+    <row r="27" spans="1:6" ht="15.75" customHeight="1">
       <c r="B27" s="10" t="s">
         <v>5</v>
       </c>
@@ -4198,7 +4324,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15.75" customHeight="1">
+    <row r="28" spans="1:6" ht="15.75" customHeight="1">
       <c r="A28" s="12" t="s">
         <v>13</v>
       </c>
@@ -4215,7 +4341,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15.75" customHeight="1">
+    <row r="29" spans="1:6" ht="15.75" customHeight="1">
       <c r="A29" s="12" t="s">
         <v>23</v>
       </c>
@@ -4223,16 +4349,16 @@
         <v>24</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>25</v>
+        <v>257</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>26</v>
+        <v>250</v>
       </c>
       <c r="E29" s="18" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15.75" customHeight="1">
+    <row r="30" spans="1:6" ht="15.75" customHeight="1">
       <c r="A30" s="12" t="s">
         <v>32</v>
       </c>
@@ -4249,7 +4375,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15.75" customHeight="1">
+    <row r="31" spans="1:6" ht="15.75" customHeight="1">
       <c r="A31" s="12" t="s">
         <v>41</v>
       </c>
@@ -4263,10 +4389,10 @@
         <v>44</v>
       </c>
       <c r="E31" s="18" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="15.75" customHeight="1">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15.75" customHeight="1">
       <c r="A32" s="12" t="s">
         <v>50</v>
       </c>
@@ -4308,7 +4434,7 @@
         <v>69</v>
       </c>
       <c r="C34" s="18" t="s">
-        <v>70</v>
+        <v>244</v>
       </c>
       <c r="D34" s="18" t="s">
         <v>71</v>
@@ -4325,10 +4451,10 @@
         <v>78</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>79</v>
+        <v>248</v>
       </c>
       <c r="D35" s="18" t="s">
-        <v>80</v>
+        <v>249</v>
       </c>
       <c r="E35" s="18" t="s">
         <v>81</v>
@@ -4359,7 +4485,7 @@
         <v>96</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>97</v>
+        <v>256</v>
       </c>
       <c r="D37" s="18" t="s">
         <v>98</v>
@@ -4393,13 +4519,13 @@
         <v>113</v>
       </c>
       <c r="C39" s="18" t="s">
-        <v>114</v>
+        <v>247</v>
       </c>
       <c r="D39" s="18" t="s">
-        <v>115</v>
+        <v>245</v>
       </c>
       <c r="E39" s="18" t="s">
-        <v>116</v>
+        <v>246</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="15.75" customHeight="1">
@@ -4478,10 +4604,10 @@
         <v>157</v>
       </c>
       <c r="C44" s="18" t="s">
-        <v>158</v>
+        <v>255</v>
       </c>
       <c r="D44" s="18" t="s">
-        <v>159</v>
+        <v>254</v>
       </c>
       <c r="E44" s="18" t="s">
         <v>160</v>
@@ -4529,7 +4655,7 @@
         <v>184</v>
       </c>
       <c r="C47" s="18" t="s">
-        <v>185</v>
+        <v>253</v>
       </c>
       <c r="D47" s="18" t="s">
         <v>186</v>
@@ -4580,13 +4706,13 @@
         <v>211</v>
       </c>
       <c r="C50" s="18" t="s">
-        <v>212</v>
+        <v>252</v>
       </c>
       <c r="D50" s="18" t="s">
         <v>213</v>
       </c>
       <c r="E50" s="18" t="s">
-        <v>214</v>
+        <v>251</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="15.75" customHeight="1">

--- a/resources/Items.xlsx
+++ b/resources/Items.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\albay\Dropbox\doxa-exp1 (1)\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1ECE6AA-E8CD-469C-AF12-1D9DE8F0F3DC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{410B156E-79C9-423D-941F-8E64CE998AAD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="283">
   <si>
     <t>Item</t>
   </si>
@@ -774,9 +774,6 @@
     <t>Para biriktirmek</t>
   </si>
   <si>
-    <t>Masa tenisi</t>
-  </si>
-  <si>
     <t>Sırıkla atlama</t>
   </si>
   <si>
@@ -816,12 +813,6 @@
     <t>Nurcan her hafta fizik dersine gidiyor.</t>
   </si>
   <si>
-    <t>Esra masa tenisi maçında Göksu’nun tarafını tutuyor.</t>
-  </si>
-  <si>
-    <t>Sevgilisinin sürpriz yapacağını duyduğunda sevdiği grubun konserine bilet aldığını $yor.</t>
-  </si>
-  <si>
     <t>Maç sonucunda Esra nasıl hisseder?</t>
   </si>
   <si>
@@ -859,6 +850,33 @@
   </si>
   <si>
     <t>Bir saat sonra mutfağa döndüğünde Taylan nasıl hisseder?</t>
+  </si>
+  <si>
+    <t>Nurcan’ın gittiği ders hangisidir?</t>
+  </si>
+  <si>
+    <t>Biyoloji</t>
+  </si>
+  <si>
+    <t>Esra tenis maçında Göksu’nun tarafını tutuyor.</t>
+  </si>
+  <si>
+    <t>Tenis</t>
+  </si>
+  <si>
+    <t>Arda sürprizin ne olduğunu söylediğinde Ayça nasıl hisseder?</t>
+  </si>
+  <si>
+    <t>Arda</t>
+  </si>
+  <si>
+    <t>Melih</t>
+  </si>
+  <si>
+    <t>Burhan</t>
+  </si>
+  <si>
+    <t>Arda'nın ona sürpriz yapacağını duyduğunda sevdiği grubun konserine bilet aldığını $yor.</t>
   </si>
 </sst>
 </file>
@@ -3837,8 +3855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3883,10 +3901,10 @@
         <v>9</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>263</v>
+        <v>282</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>11</v>
+        <v>278</v>
       </c>
       <c r="E2" s="13" t="s">
         <v>12</v>
@@ -3999,19 +4017,19 @@
         <v>73</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>262</v>
+        <v>276</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>75</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" customHeight="1">
@@ -4025,13 +4043,13 @@
         <v>84</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" customHeight="1">
@@ -4079,13 +4097,13 @@
         <v>242</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" customHeight="1">
@@ -4099,13 +4117,13 @@
         <v>119</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.75" customHeight="1">
@@ -4119,13 +4137,13 @@
         <v>128</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15.75" customHeight="1">
@@ -4136,16 +4154,16 @@
         <v>136</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15.75" customHeight="1">
@@ -4173,16 +4191,16 @@
         <v>153</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15.75" customHeight="1">
@@ -4207,13 +4225,13 @@
         <v>170</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C20" s="13" t="s">
         <v>172</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="E20" s="16" t="s">
         <v>12</v>
@@ -4230,13 +4248,13 @@
         <v>181</v>
       </c>
       <c r="D21" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="F21" s="11" t="s">
         <v>268</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>266</v>
-      </c>
-      <c r="F21" s="11" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.75" customHeight="1">
@@ -4250,7 +4268,7 @@
         <v>190</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E22" s="16" t="s">
         <v>12</v>
@@ -4332,13 +4350,13 @@
         <v>14</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>15</v>
+        <v>279</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>16</v>
+        <v>280</v>
       </c>
       <c r="E28" s="18" t="s">
-        <v>17</v>
+        <v>281</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="15.75" customHeight="1">
@@ -4349,10 +4367,10 @@
         <v>24</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E29" s="18" t="s">
         <v>27</v>
@@ -4389,7 +4407,7 @@
         <v>44</v>
       </c>
       <c r="E31" s="18" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="15.75" customHeight="1">
@@ -4451,10 +4469,10 @@
         <v>78</v>
       </c>
       <c r="C35" s="18" t="s">
+        <v>277</v>
+      </c>
+      <c r="D35" s="18" t="s">
         <v>248</v>
-      </c>
-      <c r="D35" s="18" t="s">
-        <v>249</v>
       </c>
       <c r="E35" s="18" t="s">
         <v>81</v>
@@ -4485,7 +4503,7 @@
         <v>96</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D37" s="18" t="s">
         <v>98</v>
@@ -4604,10 +4622,10 @@
         <v>157</v>
       </c>
       <c r="C44" s="18" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D44" s="18" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E44" s="18" t="s">
         <v>160</v>
@@ -4635,16 +4653,16 @@
         <v>174</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>175</v>
+        <v>274</v>
       </c>
       <c r="C46" s="18" t="s">
-        <v>176</v>
+        <v>53</v>
       </c>
       <c r="D46" s="18" t="s">
-        <v>177</v>
+        <v>52</v>
       </c>
       <c r="E46" s="18" t="s">
-        <v>178</v>
+        <v>275</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="15.75" customHeight="1">
@@ -4655,7 +4673,7 @@
         <v>184</v>
       </c>
       <c r="C47" s="18" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D47" s="18" t="s">
         <v>186</v>
@@ -4706,13 +4724,13 @@
         <v>211</v>
       </c>
       <c r="C50" s="18" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D50" s="18" t="s">
         <v>213</v>
       </c>
       <c r="E50" s="18" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="15.75" customHeight="1">
